--- a/performance_log_group/performane.xlsx
+++ b/performance_log_group/performane.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\eclipse\python_work\performance_log_group\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -27,6 +22,15 @@
     <t>stream name</t>
   </si>
   <si>
+    <t>frm count</t>
+  </si>
+  <si>
+    <t>disp count</t>
+  </si>
+  <si>
+    <t>frm rate</t>
+  </si>
+  <si>
     <t>width</t>
   </si>
   <si>
@@ -49,6 +53,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>avg_bits</t>
+  </si>
+  <si>
+    <t>max_bits</t>
   </si>
   <si>
     <t>UHD_VOD_COUNT_DOWN_GIRL_GIRL_GIRL_2ND_02.ES</t>
@@ -72,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,28 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,27 +198,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,24 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,24 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="78.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M2" s="1">
-        <v>666000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -490,236 +445,328 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>6003</v>
+      </c>
+      <c r="E4">
+        <v>6003</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
         <v>3840</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>2176</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>32640</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>15822261</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>8922670</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>4823009</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>77683</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>7878555</v>
       </c>
-      <c r="M4">
-        <f>$M$2/(I4+J4)</f>
-        <v>135.89917505527791</v>
+      <c r="O4">
+        <v>505434</v>
+      </c>
+      <c r="P4">
+        <v>5634738</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
+        <v>3901</v>
+      </c>
+      <c r="E5">
+        <v>3491</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
         <v>3856</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>2176</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>32640</v>
       </c>
-      <c r="G5">
-        <v>12552133</v>
-      </c>
-      <c r="H5">
-        <v>7643722</v>
-      </c>
-      <c r="I5">
-        <v>6142089</v>
-      </c>
       <c r="J5">
-        <v>907127</v>
+        <v>12548077</v>
       </c>
       <c r="K5">
-        <v>11930743</v>
+        <v>7641435</v>
+      </c>
+      <c r="L5">
+        <v>6140853</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M10" si="0">$M$2/(I5+J5)</f>
-        <v>94.478591661824524</v>
+        <v>907107</v>
+      </c>
+      <c r="N5">
+        <v>11928724</v>
+      </c>
+      <c r="O5">
+        <v>694416</v>
+      </c>
+      <c r="P5">
+        <v>6792713</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
+        <v>6002</v>
+      </c>
+      <c r="E6">
+        <v>6002</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
         <v>3840</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>2176</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>32640</v>
       </c>
-      <c r="G6">
-        <v>16108131</v>
-      </c>
-      <c r="H6">
-        <v>8913818</v>
-      </c>
-      <c r="I6">
-        <v>5197467</v>
-      </c>
       <c r="J6">
-        <v>211960</v>
+        <v>16106040</v>
       </c>
       <c r="K6">
-        <v>7616179</v>
+        <v>8912545</v>
+      </c>
+      <c r="L6">
+        <v>5196444</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>123.11840052560096</v>
+        <v>211809</v>
+      </c>
+      <c r="N6">
+        <v>7614191</v>
+      </c>
+      <c r="O6">
+        <v>268844</v>
+      </c>
+      <c r="P6">
+        <v>6103116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
+        <v>660</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
         <v>4112</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>2176</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>34816</v>
       </c>
-      <c r="G7">
-        <v>24220384</v>
-      </c>
-      <c r="H7">
-        <v>12248531</v>
-      </c>
-      <c r="I7">
-        <v>9585990</v>
-      </c>
       <c r="J7">
-        <v>1423746</v>
+        <v>24195978</v>
       </c>
       <c r="K7">
-        <v>19703168</v>
+        <v>12235025</v>
+      </c>
+      <c r="L7">
+        <v>9578116</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>60.491913702562897</v>
+        <v>1423425</v>
+      </c>
+      <c r="N7">
+        <v>19691629</v>
+      </c>
+      <c r="O7">
+        <v>1787870</v>
+      </c>
+      <c r="P7">
+        <v>17193105</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8">
+        <v>660</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
         <v>4112</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>2176</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>34816</v>
       </c>
-      <c r="G8">
-        <v>17579357</v>
-      </c>
-      <c r="H8">
-        <v>7495915</v>
-      </c>
-      <c r="I8">
-        <v>12450533</v>
-      </c>
       <c r="J8">
-        <v>1413720</v>
+        <v>17542659</v>
       </c>
       <c r="K8">
-        <v>23926604</v>
+        <v>7477356</v>
+      </c>
+      <c r="L8">
+        <v>12436009</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>48.037207630299299</v>
+        <v>1411563</v>
+      </c>
+      <c r="N8">
+        <v>23896751</v>
+      </c>
+      <c r="O8">
+        <v>1785813</v>
+      </c>
+      <c r="P8">
+        <v>15930286</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>4630</v>
+      </c>
+      <c r="E9">
+        <v>4444</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>3856</v>
+      </c>
+      <c r="H9">
+        <v>2176</v>
+      </c>
+      <c r="I9">
+        <v>32640</v>
+      </c>
+      <c r="J9">
+        <v>5992949</v>
+      </c>
+      <c r="K9">
+        <v>5548359</v>
+      </c>
+      <c r="L9">
+        <v>4773750</v>
+      </c>
+      <c r="M9">
+        <v>687385</v>
+      </c>
+      <c r="N9">
+        <v>7481905</v>
+      </c>
+      <c r="O9">
+        <v>292458</v>
+      </c>
+      <c r="P9">
+        <v>4920802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>3856</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>6003</v>
+      </c>
+      <c r="E10">
+        <v>6003</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>3840</v>
+      </c>
+      <c r="H10">
         <v>2176</v>
       </c>
-      <c r="F9">
+      <c r="I10">
         <v>32640</v>
       </c>
-      <c r="G9">
-        <v>5996746</v>
-      </c>
-      <c r="H9">
-        <v>5549978</v>
-      </c>
-      <c r="I9">
-        <v>4776439</v>
-      </c>
-      <c r="J9">
-        <v>687691</v>
-      </c>
-      <c r="K9">
-        <v>7487073</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>121.88582628890602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>3840</v>
-      </c>
-      <c r="E10">
-        <v>2176</v>
-      </c>
-      <c r="F10">
-        <v>32640</v>
-      </c>
-      <c r="G10">
-        <v>15823260</v>
-      </c>
-      <c r="H10">
-        <v>8923594</v>
-      </c>
-      <c r="I10">
-        <v>4823805</v>
-      </c>
       <c r="J10">
-        <v>77797</v>
+        <v>15822261</v>
       </c>
       <c r="K10">
-        <v>7879802</v>
+        <v>8922670</v>
+      </c>
+      <c r="L10">
+        <v>4823009</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>135.87394488577408</v>
+        <v>77683</v>
+      </c>
+      <c r="N10">
+        <v>7878555</v>
+      </c>
+      <c r="O10">
+        <v>505434</v>
+      </c>
+      <c r="P10">
+        <v>5634738</v>
       </c>
     </row>
   </sheetData>

--- a/performance_log_group/performane.xlsx
+++ b/performance_log_group/performane.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -59,24 +59,6 @@
   </si>
   <si>
     <t>max_bits</t>
-  </si>
-  <si>
-    <t>UHD_VOD_COUNT_DOWN_GIRL_GIRL_GIRL_2ND_02.ES</t>
-  </si>
-  <si>
-    <t>NEPAL_ADVENTURES_OF_TEAMSUPERTRAMP.IVF</t>
-  </si>
-  <si>
-    <t>NETFLIX_HEVCM10PL51-6000FPS-16000KBPS-3840X2160-1014520_5033638636_CUT500M.265</t>
-  </si>
-  <si>
-    <t>STREET1_1_4096X2176_FR60_BD10_GF_DIST_10_L51.WEBM.IVF</t>
-  </si>
-  <si>
-    <t>STREET1_1_4096X2176_FR60_BD8_GF_DIST_10_L51.WEBM.IVF</t>
-  </si>
-  <si>
-    <t>TRANSFORMERS_4_2014_4K_OFFICIAL_TRAILER_-_60FPS_SVP-HFR_2160P.IVF</t>
   </si>
 </sst>
 </file>
@@ -408,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P10"/>
+  <dimension ref="A3:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,314 +443,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>6003</v>
-      </c>
-      <c r="E4">
-        <v>6003</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>3840</v>
-      </c>
-      <c r="H4">
-        <v>2176</v>
-      </c>
-      <c r="I4">
-        <v>32640</v>
-      </c>
-      <c r="J4">
-        <v>15822261</v>
-      </c>
-      <c r="K4">
-        <v>8922670</v>
-      </c>
-      <c r="L4">
-        <v>4823009</v>
-      </c>
-      <c r="M4">
-        <v>77683</v>
-      </c>
-      <c r="N4">
-        <v>7878555</v>
-      </c>
-      <c r="O4">
-        <v>505434</v>
-      </c>
-      <c r="P4">
-        <v>5634738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>3901</v>
-      </c>
-      <c r="E5">
-        <v>3491</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>3856</v>
-      </c>
-      <c r="H5">
-        <v>2176</v>
-      </c>
-      <c r="I5">
-        <v>32640</v>
-      </c>
-      <c r="J5">
-        <v>12548077</v>
-      </c>
-      <c r="K5">
-        <v>7641435</v>
-      </c>
-      <c r="L5">
-        <v>6140853</v>
-      </c>
-      <c r="M5">
-        <v>907107</v>
-      </c>
-      <c r="N5">
-        <v>11928724</v>
-      </c>
-      <c r="O5">
-        <v>694416</v>
-      </c>
-      <c r="P5">
-        <v>6792713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>6002</v>
-      </c>
-      <c r="E6">
-        <v>6002</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>3840</v>
-      </c>
-      <c r="H6">
-        <v>2176</v>
-      </c>
-      <c r="I6">
-        <v>32640</v>
-      </c>
-      <c r="J6">
-        <v>16106040</v>
-      </c>
-      <c r="K6">
-        <v>8912545</v>
-      </c>
-      <c r="L6">
-        <v>5196444</v>
-      </c>
-      <c r="M6">
-        <v>211809</v>
-      </c>
-      <c r="N6">
-        <v>7614191</v>
-      </c>
-      <c r="O6">
-        <v>268844</v>
-      </c>
-      <c r="P6">
-        <v>6103116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>660</v>
-      </c>
-      <c r="E7">
-        <v>600</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>4112</v>
-      </c>
-      <c r="H7">
-        <v>2176</v>
-      </c>
-      <c r="I7">
-        <v>34816</v>
-      </c>
-      <c r="J7">
-        <v>24195978</v>
-      </c>
-      <c r="K7">
-        <v>12235025</v>
-      </c>
-      <c r="L7">
-        <v>9578116</v>
-      </c>
-      <c r="M7">
-        <v>1423425</v>
-      </c>
-      <c r="N7">
-        <v>19691629</v>
-      </c>
-      <c r="O7">
-        <v>1787870</v>
-      </c>
-      <c r="P7">
-        <v>17193105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>660</v>
-      </c>
-      <c r="E8">
-        <v>600</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>4112</v>
-      </c>
-      <c r="H8">
-        <v>2176</v>
-      </c>
-      <c r="I8">
-        <v>34816</v>
-      </c>
-      <c r="J8">
-        <v>17542659</v>
-      </c>
-      <c r="K8">
-        <v>7477356</v>
-      </c>
-      <c r="L8">
-        <v>12436009</v>
-      </c>
-      <c r="M8">
-        <v>1411563</v>
-      </c>
-      <c r="N8">
-        <v>23896751</v>
-      </c>
-      <c r="O8">
-        <v>1785813</v>
-      </c>
-      <c r="P8">
-        <v>15930286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>4630</v>
-      </c>
-      <c r="E9">
-        <v>4444</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>3856</v>
-      </c>
-      <c r="H9">
-        <v>2176</v>
-      </c>
-      <c r="I9">
-        <v>32640</v>
-      </c>
-      <c r="J9">
-        <v>5992949</v>
-      </c>
-      <c r="K9">
-        <v>5548359</v>
-      </c>
-      <c r="L9">
-        <v>4773750</v>
-      </c>
-      <c r="M9">
-        <v>687385</v>
-      </c>
-      <c r="N9">
-        <v>7481905</v>
-      </c>
-      <c r="O9">
-        <v>292458</v>
-      </c>
-      <c r="P9">
-        <v>4920802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>6003</v>
-      </c>
-      <c r="E10">
-        <v>6003</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>3840</v>
-      </c>
-      <c r="H10">
-        <v>2176</v>
-      </c>
-      <c r="I10">
-        <v>32640</v>
-      </c>
-      <c r="J10">
-        <v>15822261</v>
-      </c>
-      <c r="K10">
-        <v>8922670</v>
-      </c>
-      <c r="L10">
-        <v>4823009</v>
-      </c>
-      <c r="M10">
-        <v>77683</v>
-      </c>
-      <c r="N10">
-        <v>7878555</v>
-      </c>
-      <c r="O10">
-        <v>505434</v>
-      </c>
-      <c r="P10">
-        <v>5634738</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
